--- a/SubwayData/Excel/5호선 역간 거리 정보.xlsx
+++ b/SubwayData/Excel/5호선 역간 거리 정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isang-yun/WebstormProjects/FreshRoute_BE/SubwayData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D95E4D9-CDF4-2742-8BBF-0EFD21A42373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971D94CB-9C52-9E4D-8999-788D1C8A015D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="500" windowWidth="27900" windowHeight="16940" xr2:uid="{65066C00-AFA0-9049-9D79-2A99AC384A98}"/>
   </bookViews>
@@ -84,15 +84,9 @@
     <t>까치산</t>
   </si>
   <si>
-    <t>신정(은행정)</t>
-  </si>
-  <si>
     <t>목동</t>
   </si>
   <si>
-    <t>오목교(목동운동장앞)</t>
-  </si>
-  <si>
     <t>양평</t>
   </si>
   <si>
@@ -120,18 +114,9 @@
     <t>애오개</t>
   </si>
   <si>
-    <t>충정로(경기대입구)</t>
-  </si>
-  <si>
     <t>서대문</t>
   </si>
   <si>
-    <t>광화문(세종문화회관)</t>
-  </si>
-  <si>
-    <t>종로3가(탑골공원)</t>
-  </si>
-  <si>
     <t>을지로4가</t>
   </si>
   <si>
@@ -159,27 +144,12 @@
     <t>장한평</t>
   </si>
   <si>
-    <t>군자(능동)</t>
-  </si>
-  <si>
-    <t>아차산(어린이대공원후문)</t>
-  </si>
-  <si>
-    <t>광나루(장신대)</t>
-  </si>
-  <si>
-    <t>천호(풍납토성)</t>
-  </si>
-  <si>
     <t>강동</t>
   </si>
   <si>
     <t>길동</t>
   </si>
   <si>
-    <t>굽은다리(강동구민회관앞)</t>
-  </si>
-  <si>
     <t>명일</t>
   </si>
   <si>
@@ -198,9 +168,6 @@
     <t>하남풍산</t>
   </si>
   <si>
-    <t>하남시청(덕풍?신장)</t>
-  </si>
-  <si>
     <t>하남검단산역</t>
   </si>
   <si>
@@ -211,9 +178,6 @@
     <t>둔촌동</t>
   </si>
   <si>
-    <t>올림픽공원(한국체대)</t>
-  </si>
-  <si>
     <t>방이</t>
   </si>
   <si>
@@ -227,6 +191,54 @@
   </si>
   <si>
     <t>마천</t>
+  </si>
+  <si>
+    <t>신정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오목교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>충정로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광화문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로3가</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>군자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아차산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광나루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽은다리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하남시청</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올림픽공원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB3B595-0AA2-6442-8EF7-1E3F1D4BCE28}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -803,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3">
         <v>1.3</v>
@@ -817,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="3">
         <v>0.8</v>
@@ -831,7 +843,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D13" s="3">
         <v>0.9</v>
@@ -845,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -859,7 +871,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="3">
         <v>0.8</v>
@@ -873,7 +885,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>0.9</v>
@@ -887,7 +899,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
         <v>1.1000000000000001</v>
@@ -901,7 +913,7 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -915,7 +927,7 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -929,7 +941,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="3">
         <v>1.8</v>
@@ -943,7 +955,7 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="3">
         <v>0.8</v>
@@ -957,7 +969,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="3">
         <v>1.1000000000000001</v>
@@ -971,7 +983,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D23" s="3">
         <v>0.9</v>
@@ -985,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D24" s="3">
         <v>0.7</v>
@@ -999,7 +1011,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D25" s="3">
         <v>1.1000000000000001</v>
@@ -1013,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D26" s="3">
         <v>1.2</v>
@@ -1027,7 +1039,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1041,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3">
         <v>0.9</v>
@@ -1055,7 +1067,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3">
         <v>0.9</v>
@@ -1069,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
         <v>0.9</v>
@@ -1083,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3">
         <v>0.9</v>
@@ -1097,7 +1109,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3">
         <v>0.9</v>
@@ -1111,7 +1123,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3">
         <v>0.7</v>
@@ -1125,7 +1137,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -1139,7 +1151,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3">
         <v>1.2</v>
@@ -1153,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D36" s="3">
         <v>1.5</v>
@@ -1167,7 +1179,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D37" s="3">
         <v>1</v>
@@ -1181,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D38" s="3">
         <v>1.5</v>
@@ -1195,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D39" s="3">
         <v>2</v>
@@ -1209,7 +1221,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D40" s="3">
         <v>0.8</v>
@@ -1223,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D41" s="3">
         <v>0.9</v>
@@ -1237,7 +1249,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D42" s="3">
         <v>0.8</v>
@@ -1251,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0.8</v>
@@ -1265,7 +1277,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>1.2</v>
@@ -1279,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>1.1000000000000001</v>
@@ -1293,7 +1305,7 @@
         <v>4</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D46" s="3">
         <v>0.8</v>
@@ -1307,7 +1319,7 @@
         <v>4</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1.7</v>
@@ -1321,7 +1333,7 @@
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>2.1</v>
@@ -1335,7 +1347,7 @@
         <v>4</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3">
         <v>1.3</v>
@@ -1349,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D50" s="3">
         <v>1.6</v>
@@ -1363,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D51" s="3">
         <v>0</v>
@@ -1377,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D52" s="3">
         <v>1.2</v>
@@ -1391,7 +1403,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D53" s="3">
         <v>1.4</v>
@@ -1405,7 +1417,7 @@
         <v>4</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D54" s="3">
         <v>0.8</v>
@@ -1419,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D55" s="3">
         <v>0.9</v>
@@ -1433,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D56" s="3">
         <v>0.9</v>
@@ -1447,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D57" s="3">
         <v>0.9</v>
@@ -1461,7 +1473,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3">
         <v>0.9</v>
